--- a/data/georgia_census/kakheti/signagi/education_graduates.xlsx
+++ b/data/georgia_census/kakheti/signagi/education_graduates.xlsx
@@ -1849,13 +1849,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24164637-9590-48E0-9682-315348B8BFA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{989AE3D7-B7E2-4CD3-B53C-5018C365F7C8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21755223-CBF0-4001-8906-A7CDC90D3E0A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F88E72AF-18CE-4BB0-97D5-EA16870B0EF3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2529ED-2F0B-4094-9D3A-AD85883154A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E95246A-E189-4A4B-8D18-1E2D8770818C}"/>
 </file>